--- a/fortran_codes/trab02/dados.xlsx
+++ b/fortran_codes/trab02/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99f6e88dae47a7e2/Área de Trabalho/mestrado_ime/applied-math-mecheng-ime/fortran_codes/trab02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E76534F-CFE7-4B82-BD60-68B6E31EE9C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{4E76534F-CFE7-4B82-BD60-68B6E31EE9C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CE14E446-5DC2-42BC-B449-6D4EEBE26DAF}"/>
   <bookViews>
     <workbookView xWindow="855" yWindow="-120" windowWidth="19755" windowHeight="11760" xr2:uid="{717BD6E1-3E78-4FD0-BE9D-EFA2388ABBE7}"/>
   </bookViews>
@@ -34,37 +34,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Aço 1025</t>
-  </si>
-  <si>
-    <t>Alumínio 6061</t>
-  </si>
-  <si>
-    <t>Cobre (70-30)</t>
-  </si>
-  <si>
-    <t>Densidade (kg/m³)</t>
-  </si>
-  <si>
-    <t>Cp (J/kg.K)</t>
-  </si>
-  <si>
-    <t>K (W/m.K)</t>
-  </si>
-  <si>
-    <t>alpha (mm²/s)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>aco_1025</t>
+  </si>
+  <si>
+    <t>aluminio_6061</t>
+  </si>
+  <si>
+    <t>cobre_70_30</t>
+  </si>
+  <si>
+    <t>densidade</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>pyrex</t>
+  </si>
+  <si>
+    <t>polietileno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +90,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -127,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,6 +153,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6BAD22-2EA5-4817-BAB2-820128BD2DA4}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:E4"/>
+      <selection activeCell="F5" sqref="F5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +484,7 @@
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,7 +501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -499,11 +515,11 @@
         <v>51.9</v>
       </c>
       <c r="E2" s="4">
-        <f>D2/(B2*C2)*10^6</f>
-        <v>13.586529701881696</v>
+        <f>D2/(B2*C2)</f>
+        <v>1.3586529701881696E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -516,12 +532,12 @@
       <c r="D3" s="1">
         <v>247</v>
       </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E4" si="0">D3/(B3*C3)*10^6</f>
-        <v>101.64609053497942</v>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E6" si="0">D3/(B3*C3)</f>
+        <v>1.0164609053497942E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -536,8 +552,50 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>115.33423746102397</v>
-      </c>
+        <v>1.1533423746102398E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2230</v>
+      </c>
+      <c r="C5" s="1">
+        <v>850</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3859140068583479E-7</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>950</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1850</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8449502133712661E-7</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
